--- a/exercisesLifeContingencies/test2_2021_22/equal_instalments.xlsx
+++ b/exercisesLifeContingencies/test2_2021_22/equal_instalments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -462,6 +462,16 @@
           <t>premium</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>annuity_level</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>premium_leveled</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -473,13 +483,19 @@
         <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>13.83421612773932</v>
+        <v>13.59032634496769</v>
       </c>
       <c r="D2" t="n">
-        <v>13.59338753919635</v>
+        <v>13.35585960525418</v>
       </c>
       <c r="E2" t="n">
-        <v>3481.63692571022</v>
+        <v>3450.494620393525</v>
+      </c>
+      <c r="F2" t="n">
+        <v>13.92317044246741</v>
+      </c>
+      <c r="G2" t="n">
+        <v>247.8239158711355</v>
       </c>
     </row>
     <row r="3">
@@ -492,13 +508,19 @@
         <v>35</v>
       </c>
       <c r="C3" t="n">
-        <v>13.83421612773932</v>
+        <v>13.59032634496769</v>
       </c>
       <c r="D3" t="n">
-        <v>13.6884561495003</v>
+        <v>13.44827497171428</v>
       </c>
       <c r="E3" t="n">
-        <v>2107.238702838484</v>
+        <v>2090.47773611435</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14.00441067997329</v>
+      </c>
+      <c r="G3" t="n">
+        <v>149.2728101085891</v>
       </c>
     </row>
     <row r="4">
@@ -511,13 +533,19 @@
         <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>13.83421612773932</v>
+        <v>13.59032634496769</v>
       </c>
       <c r="D4" t="n">
-        <v>13.55704040978089</v>
+        <v>13.32037861615614</v>
       </c>
       <c r="E4" t="n">
-        <v>4007.10405850393</v>
+        <v>3972.645276638446</v>
+      </c>
+      <c r="F4" t="n">
+        <v>13.8905593294462</v>
+      </c>
+      <c r="G4" t="n">
+        <v>285.9960626795603</v>
       </c>
     </row>
   </sheetData>
